--- a/SourceCode/2023/Oct2023/Sandesh/Test case REFramework/RoboticEnterpriseFramework_ExcelTestCase_Sandesh/Data/Input/Input.xlsx
+++ b/SourceCode/2023/Oct2023/Sandesh/Test case REFramework/RoboticEnterpriseFramework_ExcelTestCase_Sandesh/Data/Input/Input.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20398"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{731E3338-22B7-4D93-8C92-98B9DFCB169F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Task" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,41 +22,41 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
-    <t>Value </t>
-  </si>
-  <si>
-    <t>Result </t>
-  </si>
-  <si>
-    <t>Condition </t>
-  </si>
-  <si>
-    <t>Status </t>
-  </si>
-  <si>
-    <t>jk32*d''''''1256 </t>
-  </si>
-  <si>
-    <t>only alphabets </t>
-  </si>
-  <si>
-    <t>#@$345rfe3# </t>
-  </si>
-  <si>
-    <t>only special character </t>
-  </si>
-  <si>
-    <t>4567345e </t>
-  </si>
-  <si>
-    <t>only digits </t>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>jk32*d''''''1256</t>
+  </si>
+  <si>
+    <t>only alphabets</t>
+  </si>
+  <si>
+    <t>#@$345rfe3#</t>
+  </si>
+  <si>
+    <t>only special character</t>
+  </si>
+  <si>
+    <t>4567345e</t>
+  </si>
+  <si>
+    <t>only digits</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,37 +66,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF4472C4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -103,182 +87,14 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -559,69 +375,66 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7"/>
+      <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:4" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="7"/>
+      <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="9"/>
+    <row r="4" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11" t="s">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="12"/>
+      <c r="D5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
